--- a/medicine/Pharmacie/Pierre-Hippolyte_Boutigny/Pierre-Hippolyte_Boutigny.xlsx
+++ b/medicine/Pharmacie/Pierre-Hippolyte_Boutigny/Pierre-Hippolyte_Boutigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Hippolyte Boutigny, dit Boutigny d'Évreux (16 mai 1798 à Harfleur, Seine-Inférieure - 17 mars 1884 à Évreux, Eure) est un savant français, physicien et chimiste, chevalier de la Légion d'honneur, auteur d'une quinzaine de publications.
 </t>
@@ -513,17 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et carrière
-Pierre-Hippolyte Boutigny naît le 16 mai 1798[a] au hameau de Colleville à Harfleur, de Jean-François Boutigny, jardinier, et de Jeanne-Catherine Vimont. Il est le troisième d'une fratrie d'une fille et trois garçons[1],[2].
-Le 21 avril 1823, il épouse à Incarville Caroline de Maurey (1804-1888), fille de Jacques-Antoine de Maurey (1759-1829), propriétaire de filature et inventeur d'une machine à tisser. Elle lui donne rapidement deux enfants: Céline en 1824 et Charles-Constant en 1826. Ce dernier s'intéressera également aux sciences et publiera des Tableaux synoptiques d'anatomie descriptive à l'usage des étudiants et des praticiens[3]. 
+          <t>Famille et carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pierre-Hippolyte Boutigny naît le 16 mai 1798[a] au hameau de Colleville à Harfleur, de Jean-François Boutigny, jardinier, et de Jeanne-Catherine Vimont. Il est le troisième d'une fratrie d'une fille et trois garçons,.
+Le 21 avril 1823, il épouse à Incarville Caroline de Maurey (1804-1888), fille de Jacques-Antoine de Maurey (1759-1829), propriétaire de filature et inventeur d'une machine à tisser. Elle lui donne rapidement deux enfants: Céline en 1824 et Charles-Constant en 1826. Ce dernier s'intéressera également aux sciences et publiera des Tableaux synoptiques d'anatomie descriptive à l'usage des étudiants et des praticiens. 
 Pharmacien reconnu exerçant sa profession à Évreux, il est un temps président de la Société de pharmacie et de chimie de Paris, et membre de l’Académie de Pharmacie et de différentes sociétés. 
-En tant que physicien, il est fait chevalier de la Légion d'honneur[4] le 6 mai 1846[5]. Il vit alors à La Chartre-sur-le-Loir (Sarthe). Il obtient à l'Exposition universelle de 1855 à Paris un prix de seconde classe pour une chaudière qu'il a conçue.
-Il meurt à Évreux le 17 mars 1884, en son domicile au 48 rue Saint-Léger. Il est inhumé au cimetière d'Incarville dans le tombeau de son beau-père Jacques de Maurey et du frère de ce dernier, l'abbé Georges de Maurey (1761-1846), curé de la paroisse.
-Physicien
-Il mène des travaux sur des sujets variés, signant une quinzaine de publications allant du chocolat et de sa fabrication à l'utilisation de la vapeur en machine ou en médecine, et de l’incombustibilité des tissus organiques vivants aux armes à feu. Il travaille notamment avec Jacques Gay (1786-1864).
-Il se spécialise en chimie sur les phénomènes de caléfaction et d'état sphéroïdal, à savoir les liquides qui, chauffés, conservent leur volume et deviennent globulaires ou lieu de bouillir, ce qu'il est le premier savant à étudier en détail afin de perfectionner les machines à vapeur alors en plein développement[6]. Il reconnaît dans l'ouvrage qui lui est consacré : « Cette expression l’état sphéroïdal, que j’ai proposée pour désigner la modification moléculaire dont il s’agit, est aujourd’hui passée dans la langue scientifique »[7]. Il postule qu'il s'agit d'un état supplémentaire de la matière, aujourd'hui appelé "effet Leidenfrost".
-Henri Pellat reprend son expérience dans son Cours de physique, mais Charles-Cléophas Person, professeur au collège royal de Rouen, s'applique à prouver l'inutilité des arguments de Pierre Boutigny. « L’examen de ces ouvrages demandait à être d’autant plus approfondi, qu’il ne s’agissait de rien moins que de l’introduction d’une nouvelle théorie en physique; aussi M. Person n’a rien négligé pour faire ressortir que les intéressantes expériences de M. Boutigny pouvaient être expliquées par les lois connues en physique sans qu’il fût nécessaire de supposer un quatrième état des corps. »[8]
-</t>
+En tant que physicien, il est fait chevalier de la Légion d'honneur le 6 mai 1846. Il vit alors à La Chartre-sur-le-Loir (Sarthe). Il obtient à l'Exposition universelle de 1855 à Paris un prix de seconde classe pour une chaudière qu'il a conçue.
+Il meurt à Évreux le 17 mars 1884, en son domicile au 48 rue Saint-Léger. Il est inhumé au cimetière d'Incarville dans le tombeau de son beau-père Jacques de Maurey et du frère de ce dernier, l'abbé Georges de Maurey (1761-1846), curé de la paroisse.</t>
         </is>
       </c>
     </row>
@@ -548,14 +560,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Physicien</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mène des travaux sur des sujets variés, signant une quinzaine de publications allant du chocolat et de sa fabrication à l'utilisation de la vapeur en machine ou en médecine, et de l’incombustibilité des tissus organiques vivants aux armes à feu. Il travaille notamment avec Jacques Gay (1786-1864).
+Il se spécialise en chimie sur les phénomènes de caléfaction et d'état sphéroïdal, à savoir les liquides qui, chauffés, conservent leur volume et deviennent globulaires ou lieu de bouillir, ce qu'il est le premier savant à étudier en détail afin de perfectionner les machines à vapeur alors en plein développement. Il reconnaît dans l'ouvrage qui lui est consacré : « Cette expression l’état sphéroïdal, que j’ai proposée pour désigner la modification moléculaire dont il s’agit, est aujourd’hui passée dans la langue scientifique ». Il postule qu'il s'agit d'un état supplémentaire de la matière, aujourd'hui appelé "effet Leidenfrost".
+Henri Pellat reprend son expérience dans son Cours de physique, mais Charles-Cléophas Person, professeur au collège royal de Rouen, s'applique à prouver l'inutilité des arguments de Pierre Boutigny. « L’examen de ces ouvrages demandait à être d’autant plus approfondi, qu’il ne s’agissait de rien moins que de l’introduction d’une nouvelle théorie en physique; aussi M. Person n’a rien négligé pour faire ressortir que les intéressantes expériences de M. Boutigny pouvaient être expliquées par les lois connues en physique sans qu’il fût nécessaire de supposer un quatrième état des corps. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre-Hippolyte_Boutigny</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre-Hippolyte_Boutigny</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (décoré le 6 mai 1846)
 Prix à l'Exposition universelle de 1855
-Pierre-Hippolyte appartient à plusieurs sociétés savantes[9]:
+Pierre-Hippolyte appartient à plusieurs sociétés savantes:
 Académie impériale de médecine,
 Association britannique pour l'avancement des sciences,
 Institut des ingénieurs civils de Londres (membre associé),
@@ -570,33 +623,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Pierre-Hippolyte_Boutigny</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pierre-Hippolyte_Boutigny</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Du Chocolat, de sa fabrication, des moyens de reconnaître sa falsification, et de ses propriétés alimentaires et médicales, 1825, Évreux, Impr. Ancelle Fils[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Du Chocolat, de sa fabrication, des moyens de reconnaître sa falsification, et de ses propriétés alimentaires et médicales, 1825, Évreux, Impr. Ancelle Fils.
 Recueil de Notices sur les pilules américaines, 1827.
 Recherches à déterminer l’époque à laquelle une arme à feu a été déchargée, 1839, Évreux.
 Rapport sur un Mémoire intitulé "Phénomènes de la caléfaction", in Comptes rendus hebdomadaires des séances de l'Académie des sciences, Séance du 1er janvier 1840, 1840, pp. 397-402.
